--- a/Modelagem Fisica - Clinica.xlsx
+++ b/Modelagem Fisica - Clinica.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\senai_spmedgroup_sprint1_bd-manha_LucasFelicianodeAlmeidaTeixeira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D976345-E43A-48A0-8CEF-06D670500F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{D819021B-4092-45C9-9880-573CED32FBF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -259,12 +258,60 @@
   </si>
   <si>
     <t>Consulta</t>
+  </si>
+  <si>
+    <t>StatusConsulta</t>
+  </si>
+  <si>
+    <t>TituloStatusConsulta</t>
+  </si>
+  <si>
+    <t>Agendada</t>
+  </si>
+  <si>
+    <t>Realizada</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Clinica</t>
+  </si>
+  <si>
+    <t>IdClinica</t>
+  </si>
+  <si>
+    <t>IdEndereço</t>
+  </si>
+  <si>
+    <t>TituloClinica</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>RazaoSocial</t>
+  </si>
+  <si>
+    <t>HorarioAbertura</t>
+  </si>
+  <si>
+    <t>HorarioFechamento</t>
+  </si>
+  <si>
+    <t>Av.Barão de Limeira</t>
+  </si>
+  <si>
+    <t>SP Medical Group</t>
+  </si>
+  <si>
+    <t>Clinica Possarle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +441,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,23 +476,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -436,49 +543,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -793,782 +873,1094 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E523E96-0413-4605-85D4-ADFBE61EC09E}">
-  <dimension ref="A1:AA39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="23"/>
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="F3" s="6">
+      <c r="D3" s="21"/>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="6">
+      <c r="D4" s="21"/>
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
         <v>3</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="6">
+      <c r="D5" s="21"/>
+      <c r="F5" s="8">
         <v>3</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="8"/>
+      <c r="N5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="F6" s="6">
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="F7" s="6">
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F7" s="8">
         <v>5</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="F8" s="6">
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <v>2</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="O8" s="8"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="R11" s="16" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="R11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12" t="s">
+      <c r="N12" s="18"/>
+      <c r="O12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="R12" s="17" t="s">
+      <c r="P12" s="18"/>
+      <c r="R12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17" t="s">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17" t="s">
+      <c r="U12" s="11"/>
+      <c r="V12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17" t="s">
+      <c r="W12" s="11"/>
+      <c r="X12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17" t="s">
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AA12" s="17"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="AA12" s="11"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>1</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="15">
         <v>36560</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13">
         <v>11111111111</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13">
         <v>123456789</v>
       </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14" t="s">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="R13" s="18">
+      <c r="P13" s="13"/>
+      <c r="R13" s="10">
         <v>1</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18" t="s">
+      <c r="S13" s="10"/>
+      <c r="T13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18" t="s">
+      <c r="U13" s="10"/>
+      <c r="V13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18" t="s">
+      <c r="W13" s="10"/>
+      <c r="X13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18">
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10">
         <v>210</v>
       </c>
-      <c r="AA13" s="18"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13">
         <v>3</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <v>1</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="15">
         <v>36489</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13">
         <v>22222222222</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14">
+      <c r="L14" s="13"/>
+      <c r="M14" s="13">
         <v>234567890</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14" t="s">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="R14" s="18">
+      <c r="P14" s="13"/>
+      <c r="R14" s="10">
         <v>2</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18" t="s">
+      <c r="S14" s="10"/>
+      <c r="T14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18" t="s">
+      <c r="U14" s="10"/>
+      <c r="V14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18" t="s">
+      <c r="W14" s="10"/>
+      <c r="X14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18">
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10">
         <v>300</v>
       </c>
-      <c r="AA14" s="18"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="AA14" s="10"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="R15" s="10">
+        <v>3</v>
+      </c>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10">
+        <v>532</v>
+      </c>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="F16" s="22" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="F17" s="23" t="s">
+      <c r="D17" s="6"/>
+      <c r="F17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="M17" s="14"/>
+      <c r="Q17" s="29"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>1</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="24">
+      <c r="D18" s="4"/>
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
         <v>14</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="F19" s="24">
+      <c r="D19" s="4"/>
+      <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7">
         <v>17</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24" t="s">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>3</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="4"/>
+      <c r="F21" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>5</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="4"/>
+      <c r="F22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
+      <c r="I22" s="19"/>
+      <c r="J22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
+      <c r="M22" s="19"/>
+      <c r="N22" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="O22" s="19"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="U22" s="24"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>6</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="D23" s="4"/>
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20">
+        <v>2</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20">
+        <v>2</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="26">
+        <v>43886</v>
+      </c>
+      <c r="O23" s="20"/>
+      <c r="R23" s="25">
+        <v>1</v>
+      </c>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>7</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
+      <c r="D24" s="4"/>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20">
+        <v>2</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20">
+        <v>1</v>
+      </c>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20">
+        <v>1</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="26">
+        <v>43864</v>
+      </c>
+      <c r="O24" s="20"/>
+      <c r="R24" s="25">
+        <v>2</v>
+      </c>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" s="25"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>8</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
+      <c r="D25" s="4"/>
+      <c r="F25" s="20">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20">
+        <v>1</v>
+      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20">
+        <v>3</v>
+      </c>
+      <c r="M25" s="20"/>
+      <c r="N25" s="26">
+        <v>43831</v>
+      </c>
+      <c r="O25" s="20"/>
+      <c r="R25" s="25">
+        <v>3</v>
+      </c>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>9</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
+      <c r="D26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>10</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>11</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>12</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+      <c r="D29" s="4"/>
+      <c r="F29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>13</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="D30" s="4"/>
+      <c r="F30" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>14</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+      <c r="D31" s="4"/>
+      <c r="F31" s="24">
+        <v>1</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24">
+        <v>3</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24">
+        <v>123456789</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="24"/>
+      <c r="P31" s="27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="S31" s="24"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>15</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>16</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>17</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+  <mergeCells count="195">
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -1590,124 +1982,36 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{77DB0DC3-9281-4B24-8DE7-FE288DB47F42}"/>
-    <hyperlink ref="N4" r:id="rId2" xr:uid="{E0EE27B9-D59E-4127-8F9F-B9698F4E7DA6}"/>
-    <hyperlink ref="N5" r:id="rId3" xr:uid="{057D4124-7F2D-4EB7-AAC7-5D05F8C5B69E}"/>
-    <hyperlink ref="N6" r:id="rId4" xr:uid="{5FED55DA-3F0D-4337-81D6-6FBFBD4C24CB}"/>
-    <hyperlink ref="N7" r:id="rId5" xr:uid="{F750A51A-118A-41B4-BCC9-FA49DE95C42B}"/>
-    <hyperlink ref="N8" r:id="rId6" xr:uid="{59FACD48-6EB9-4A7D-BBE5-F96447EC7428}"/>
+    <hyperlink ref="N3" r:id="rId1"/>
+    <hyperlink ref="N4" r:id="rId2"/>
+    <hyperlink ref="N5" r:id="rId3"/>
+    <hyperlink ref="N6" r:id="rId4"/>
+    <hyperlink ref="N7" r:id="rId5"/>
+    <hyperlink ref="N8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Modelagem Fisica - Clinica.xlsx
+++ b/Modelagem Fisica - Clinica.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\senai_spmedgroup_sprint1_bd-manha_LucasFelicianodeAlmeidaTeixeira\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B11C7C-9EA0-43A4-B4A1-9F9FB1D28F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -311,8 +312,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +329,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -476,89 +485,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -873,915 +885,915 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="6"/>
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="F3" s="8">
+      <c r="D3" s="9"/>
+      <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14">
         <v>1</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="F4" s="8">
+      <c r="D4" s="9"/>
+      <c r="F4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
         <v>3</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="F5" s="8">
+      <c r="D5" s="9"/>
+      <c r="F5" s="14">
         <v>3</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
         <v>3</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F6" s="8">
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F6" s="14">
         <v>4</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
         <v>2</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F7" s="8">
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F7" s="14">
         <v>5</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
         <v>1</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F8" s="8">
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F8" s="14">
         <v>6</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>2</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="O8" s="14"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="R11" s="12" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="R11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18" t="s">
+      <c r="J12" s="17"/>
+      <c r="K12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18" t="s">
+      <c r="L12" s="17"/>
+      <c r="M12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18" t="s">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="R12" s="11" t="s">
+      <c r="P12" s="17"/>
+      <c r="R12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11" t="s">
+      <c r="S12" s="18"/>
+      <c r="T12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11" t="s">
+      <c r="U12" s="18"/>
+      <c r="V12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11" t="s">
+      <c r="W12" s="18"/>
+      <c r="X12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11" t="s">
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AA12" s="11"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="AA12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
         <v>1</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20">
         <v>2</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20">
         <v>2</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15">
+      <c r="H13" s="20"/>
+      <c r="I13" s="24">
         <v>36560</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20">
         <v>11111111111</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13">
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
         <v>123456789</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13" t="s">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="R13" s="10">
+      <c r="P13" s="20"/>
+      <c r="R13" s="5">
         <v>1</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10" t="s">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10" t="s">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10" t="s">
+      <c r="W13" s="5"/>
+      <c r="X13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10">
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5">
         <v>210</v>
       </c>
-      <c r="AA13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>2</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20">
         <v>3</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="15">
+      <c r="H14" s="20"/>
+      <c r="I14" s="24">
         <v>36489</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13">
+      <c r="J14" s="20"/>
+      <c r="K14" s="20">
         <v>22222222222</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13">
+      <c r="L14" s="20"/>
+      <c r="M14" s="20">
         <v>234567890</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13" t="s">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="R14" s="10">
+      <c r="P14" s="20"/>
+      <c r="R14" s="5">
         <v>2</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10" t="s">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10" t="s">
+      <c r="U14" s="5"/>
+      <c r="V14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10" t="s">
+      <c r="W14" s="5"/>
+      <c r="X14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10">
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5">
         <v>300</v>
       </c>
-      <c r="AA14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="R15" s="10">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="R15" s="5">
         <v>3</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10" t="s">
+      <c r="S15" s="5"/>
+      <c r="T15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10" t="s">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10" t="s">
+      <c r="W15" s="5"/>
+      <c r="X15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10">
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5">
         <v>532</v>
       </c>
-      <c r="AA15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="16" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="F17" s="14" t="s">
+      <c r="D17" s="27"/>
+      <c r="F17" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14" t="s">
+      <c r="I17" s="23"/>
+      <c r="J17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14" t="s">
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="M17" s="23"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="28">
         <v>1</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="F18" s="7">
+      <c r="D18" s="26"/>
+      <c r="F18" s="22">
         <v>1</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22">
         <v>4</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
         <v>14</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7" t="s">
+      <c r="K18" s="22"/>
+      <c r="L18" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="F19" s="7">
+      <c r="D19" s="26"/>
+      <c r="F19" s="22">
         <v>2</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="G19" s="22"/>
+      <c r="H19" s="22">
         <v>6</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22">
         <v>17</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
         <v>3</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="D20" s="26"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
         <v>4</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="F21" s="28" t="s">
+      <c r="D21" s="26"/>
+      <c r="F21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
         <v>5</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="F22" s="19" t="s">
+      <c r="D22" s="26"/>
+      <c r="F22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19" t="s">
+      <c r="K22" s="16"/>
+      <c r="L22" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19" t="s">
+      <c r="M22" s="16"/>
+      <c r="N22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="O22" s="19"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="24" t="s">
+      <c r="R22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24" t="s">
+      <c r="S22" s="7"/>
+      <c r="T22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="U22" s="24"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
         <v>6</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="F23" s="20">
+      <c r="D23" s="26"/>
+      <c r="F23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>1</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10">
         <v>2</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
         <v>2</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="26">
+      <c r="M23" s="10"/>
+      <c r="N23" s="11">
         <v>43886</v>
       </c>
-      <c r="O23" s="20"/>
-      <c r="R23" s="25">
+      <c r="O23" s="10"/>
+      <c r="R23" s="12">
         <v>1</v>
       </c>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25" t="s">
+      <c r="S23" s="12"/>
+      <c r="T23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="U23" s="25"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="U23" s="12"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="28">
         <v>7</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="F24" s="20">
+      <c r="D24" s="26"/>
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
         <v>2</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10">
         <v>1</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10">
         <v>1</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="26">
+      <c r="M24" s="10"/>
+      <c r="N24" s="11">
         <v>43864</v>
       </c>
-      <c r="O24" s="20"/>
-      <c r="R24" s="25">
+      <c r="O24" s="10"/>
+      <c r="R24" s="12">
         <v>2</v>
       </c>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25" t="s">
+      <c r="S24" s="12"/>
+      <c r="T24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U24" s="25"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="U24" s="12"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="28">
         <v>8</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="F25" s="20">
+      <c r="D25" s="26"/>
+      <c r="F25" s="10">
         <v>3</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <v>1</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10">
         <v>1</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10">
         <v>3</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="26">
+      <c r="M25" s="10"/>
+      <c r="N25" s="11">
         <v>43831</v>
       </c>
-      <c r="O25" s="20"/>
-      <c r="R25" s="25">
+      <c r="O25" s="10"/>
+      <c r="R25" s="12">
         <v>3</v>
       </c>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25" t="s">
+      <c r="S25" s="12"/>
+      <c r="T25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="U25" s="25"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="U25" s="12"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="28">
         <v>9</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="D26" s="26"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="28">
         <v>10</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="D27" s="26"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="28">
         <v>11</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="28">
         <v>12</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="F29" s="23" t="s">
+      <c r="D29" s="26"/>
+      <c r="F29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="28">
         <v>13</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="F30" s="21" t="s">
+      <c r="D30" s="26"/>
+      <c r="F30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21" t="s">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21" t="s">
+      <c r="M30" s="9"/>
+      <c r="N30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21" t="s">
+      <c r="O30" s="9"/>
+      <c r="P30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21" t="s">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="S30" s="21"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
         <v>14</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="F31" s="24">
+      <c r="D31" s="26"/>
+      <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
         <v>3</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24" t="s">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7">
         <v>123456789</v>
       </c>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24" t="s">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O31" s="24"/>
-      <c r="P31" s="27">
+      <c r="O31" s="7"/>
+      <c r="P31" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="27">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8">
         <v>0.70833333333333337</v>
       </c>
-      <c r="S31" s="24"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="28">
         <v>15</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="28">
         <v>16</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="28"/>
+      <c r="C33" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="D33" s="26"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="28">
         <v>17</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1789,24 +1801,195 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="195">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
@@ -1831,185 +2014,14 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1"/>
-    <hyperlink ref="N4" r:id="rId2"/>
-    <hyperlink ref="N5" r:id="rId3"/>
-    <hyperlink ref="N6" r:id="rId4"/>
-    <hyperlink ref="N7" r:id="rId5"/>
-    <hyperlink ref="N8" r:id="rId6"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
